--- a/hr-cpp/hr-c6-basemanage/public/static/file/111.xlsx
+++ b/hr-cpp/hr-c6-basemanage/public/static/file/111.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zpf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zero-one-hrsys\c6\zero-one-hrsys\hr-cpp\hr-c6-basemanage\public\static\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147A953E-5BFE-4AA9-9C66-4A20D607BB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C20FED-D077-4C6E-937E-CC6A3C33857D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>员工编号</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>9999/9/22  10:59:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同编号</t>
+  </si>
+  <si>
+    <t>员工状态</t>
+  </si>
+  <si>
+    <t>0lhlhl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rerererere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -445,7 +463,7 @@
     <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,10 +500,16 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>999999</v>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="1">
         <v>9999999</v>
@@ -520,8 +544,14 @@
       <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="M2">
+        <v>114514</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>88888</v>
       </c>
@@ -557,6 +587,12 @@
       </c>
       <c r="L3" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="M3">
+        <v>1111111</v>
+      </c>
+      <c r="N3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
